--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,141 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Asia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>UAE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
@@ -691,7 +691,7 @@
         <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O2" t="n">
         <v>1.58</v>
@@ -712,37 +712,37 @@
         <v>2.22</v>
       </c>
       <c r="U2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
         <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X2" t="n">
         <v>8.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="n">
         <v>6.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AF2" t="n">
         <v>11.5</v>
@@ -751,16 +751,16 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AJ2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
         <v>75</v>
@@ -769,10 +769,145 @@
         <v>250</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO2" t="n">
         <v>150</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Suriname</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G2" t="n">
         <v>2.14</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
         <v>3.4</v>
@@ -688,28 +688,28 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
         <v>2.44</v>
       </c>
       <c r="O2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="U2" t="n">
         <v>1.67</v>
@@ -718,7 +718,7 @@
         <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X2" t="n">
         <v>8.6</v>
@@ -733,7 +733,7 @@
         <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
         <v>7.4</v>
@@ -751,7 +751,7 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
         <v>130</v>
@@ -763,7 +763,7 @@
         <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
         <v>250</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
         <v>1.87</v>
@@ -811,7 +811,7 @@
         <v>5.3</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -838,10 +838,10 @@
         <v>2.28</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
         <v>2.12</v>
@@ -850,7 +850,7 @@
         <v>1.71</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
         <v>2.14</v>
@@ -886,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>130</v>
@@ -908,6 +908,1761 @@
       </c>
       <c r="AO3" t="n">
         <v>180</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ind Medellin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>960</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Llaneros FC</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="X6" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Aguilas Doradas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X8" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Atletico Nacional Medell</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X10" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Alianza FC Valledupar</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K11" t="n">
+        <v>950</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Bermuda</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Curacao</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X12" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>280</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>190</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Trinidad &amp; Tobago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X15" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X16" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G2" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>3.4</v>
@@ -691,13 +691,13 @@
         <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O2" t="n">
         <v>1.59</v>
       </c>
       <c r="P2" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q2" t="n">
         <v>2.92</v>
@@ -709,7 +709,7 @@
         <v>6.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U2" t="n">
         <v>1.67</v>
@@ -718,10 +718,10 @@
         <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="X2" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y2" t="n">
         <v>11.5</v>
@@ -730,22 +730,22 @@
         <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
         <v>6.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -757,7 +757,7 @@
         <v>130</v>
       </c>
       <c r="AJ2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK2" t="n">
         <v>32</v>
@@ -769,16 +769,16 @@
         <v>250</v>
       </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>FC Twente</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1.87</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>5.3</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.82</v>
+        <v>1.29</v>
       </c>
       <c r="O3" t="n">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>1.23</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>4.5</v>
+        <v>1.23</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,30 +923,30 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -955,94 +955,94 @@
         <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>2.82</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="P4" t="n">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="V4" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI4" t="n">
         <v>130</v>
       </c>
-      <c r="AB4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>960</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>85</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="H5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.7</v>
       </c>
-      <c r="I5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="P5" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="X5" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
       <c r="H6" t="n">
-        <v>7.4</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>10.5</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="P6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.75</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.66</v>
-      </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>1.49</v>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.96</v>
+        <v>7.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.1</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>5.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="V7" t="n">
-        <v>1.9</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>1.25</v>
+        <v>2.66</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.6</v>
+        <v>3.95</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>2.22</v>
       </c>
       <c r="J8" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="V8" t="n">
-        <v>1.43</v>
+        <v>1.82</v>
       </c>
       <c r="W8" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
         <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="H9" t="n">
-        <v>2.54</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="T9" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>2.16</v>
+        <v>1.89</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,103 +1738,103 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medell</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.22</v>
+        <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>2.74</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AA10" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
         <v>980</v>
@@ -1843,16 +1843,16 @@
         <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.24</v>
+        <v>2.58</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.78</v>
+        <v>3.75</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.64</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.81</v>
-      </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>13.5</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="n">
-        <v>16.5</v>
+        <v>2.36</v>
       </c>
       <c r="H12" t="n">
-        <v>1.21</v>
+        <v>1.76</v>
       </c>
       <c r="I12" t="n">
-        <v>1.27</v>
+        <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>7.4</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>950</v>
       </c>
       <c r="L12" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>6.4</v>
+        <v>1.78</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>2.8</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.74</v>
+        <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>2.08</v>
+        <v>3.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>4.7</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>1.06</v>
+        <v>1.8</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>2.02</v>
+        <v>1.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.28</v>
+        <v>1.24</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>7.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.43</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>1.77</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S13" t="n">
-        <v>3.3</v>
+        <v>2.06</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="V13" t="n">
-        <v>1.78</v>
+        <v>5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AH13" t="n">
         <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="14">
@@ -2273,87 +2273,87 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="I14" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.34</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="V14" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="W14" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
         <v>980</v>
@@ -2362,7 +2362,7 @@
         <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
         <v>1000</v>
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="G15" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="I15" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
         <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>2.84</v>
       </c>
       <c r="O15" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
-        <v>2.86</v>
+        <v>4.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.99</v>
       </c>
       <c r="W15" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="X15" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,120 +2548,255 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Nicaragua</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Honduras</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G17" t="n">
         <v>11</v>
       </c>
-      <c r="H16" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="H17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K17" t="n">
         <v>5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>1.45</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>2.06</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="R17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S17" t="n">
         <v>3.45</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T17" t="n">
         <v>2</v>
       </c>
-      <c r="U16" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X16" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO16" t="n">
+      <c r="U17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Lierse</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>3.4</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.46</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.59</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.92</v>
+        <v>1.1</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="T2" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Twente</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>1.29</v>
+        <v>2.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.6</v>
       </c>
       <c r="P3" t="n">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.23</v>
+        <v>2.92</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.23</v>
+        <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>FC Twente</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>1.26</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.82</v>
+        <v>1.29</v>
       </c>
       <c r="O4" t="n">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>1.23</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>4.5</v>
+        <v>1.24</v>
       </c>
       <c r="T4" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.71</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.12</v>
       </c>
-      <c r="H5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.84</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
         <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI5" t="n">
         <v>130</v>
       </c>
-      <c r="AB5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>85</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
         <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AN5" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.14</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>2.32</v>
+        <v>4.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>2.02</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>2.26</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O6" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>1.89</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.3</v>
       </c>
-      <c r="W6" t="n">
-        <v>1.75</v>
-      </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.49</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>13.5</v>
       </c>
       <c r="H7" t="n">
-        <v>7.2</v>
+        <v>1.3</v>
       </c>
       <c r="I7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X7" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>10.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="X7" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.95</v>
+        <v>1.93</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>2.24</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22</v>
+        <v>5.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>2.84</v>
+        <v>2.22</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.82</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
-        <v>1.25</v>
+        <v>1.81</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,67 +1603,67 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.98</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>1.54</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>3.95</v>
+        <v>2.66</v>
       </c>
       <c r="T9" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
-        <v>1.89</v>
+        <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W9" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1675,7 +1675,7 @@
         <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
         <v>980</v>
@@ -1687,37 +1687,37 @@
         <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
         <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10">
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="I10" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.32</v>
@@ -1780,7 +1780,7 @@
         <v>1.91</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
         <v>1.35</v>
@@ -1792,64 +1792,64 @@
         <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH10" t="n">
         <v>21</v>
       </c>
-      <c r="AG10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK10" t="n">
         <v>42</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>980</v>
-      </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
         <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
         <v>28</v>
@@ -1873,67 +1873,67 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medell</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.3</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.65</v>
-      </c>
       <c r="R11" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>2.64</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="V11" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="W11" t="n">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -1945,7 +1945,7 @@
         <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
         <v>980</v>
@@ -1957,37 +1957,37 @@
         <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="G12" t="n">
-        <v>2.36</v>
+        <v>5.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.76</v>
+        <v>1.97</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>2.04</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>1.78</v>
+        <v>2.86</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="P12" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.96</v>
       </c>
       <c r="W12" t="n">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>1.53</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>1.67</v>
       </c>
       <c r="H13" t="n">
-        <v>1.2</v>
+        <v>6.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>7.4</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>9.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>2.88</v>
+        <v>1.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.43</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.77</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>2.06</v>
+        <v>3.75</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="U13" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="V13" t="n">
-        <v>5</v>
+        <v>1.12</v>
       </c>
       <c r="W13" t="n">
-        <v>1.05</v>
+        <v>2.48</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
         <v>9.6</v>
       </c>
-      <c r="AB13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>170</v>
-      </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
         <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>280</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>4.6</v>
+        <v>2.32</v>
       </c>
       <c r="H14" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>2.28</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S14" t="n">
         <v>4.4</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.29</v>
       </c>
-      <c r="S14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.78</v>
-      </c>
       <c r="W14" t="n">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,123 +2408,123 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>1.94</v>
       </c>
       <c r="G15" t="n">
-        <v>4.6</v>
+        <v>2.12</v>
       </c>
       <c r="H15" t="n">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>2.02</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
         <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>2.84</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>1.99</v>
+        <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>1.27</v>
+        <v>1.89</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="G16" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="I16" t="n">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="O16" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="R16" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>2.86</v>
+        <v>4.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="U16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.04</v>
       </c>
-      <c r="V16" t="n">
-        <v>1.74</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
         <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,120 +2683,255 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7.6</v>
+        <v>3.55</v>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>1.43</v>
+        <v>2.12</v>
       </c>
       <c r="I17" t="n">
-        <v>1.54</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R17" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
         <v>3.45</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="U17" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>2.84</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="X17" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AB17" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AC17" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X18" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -802,40 +802,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="O3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -844,16 +844,16 @@
         <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V3" t="n">
         <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X3" t="n">
         <v>8.199999999999999</v>
@@ -871,13 +871,13 @@
         <v>6.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
         <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
@@ -886,22 +886,22 @@
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>160</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN3" t="n">
         <v>32</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
@@ -946,10 +946,10 @@
         <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="K4" t="n">
         <v>1000</v>
@@ -964,19 +964,19 @@
         <v>1.29</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
         <v>1.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -1075,7 +1075,7 @@
         <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H5" t="n">
         <v>5.3</v>
@@ -1087,7 +1087,7 @@
         <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.53</v>
@@ -1117,13 +1117,13 @@
         <v>2.12</v>
       </c>
       <c r="U5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X5" t="n">
         <v>11.5</v>
@@ -1141,13 +1141,13 @@
         <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
         <v>24</v>
       </c>
       <c r="AE5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
         <v>10</v>
@@ -1156,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI5" t="n">
         <v>130</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I6" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.43</v>
@@ -1231,13 +1231,13 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
         <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
         <v>1.89</v>
@@ -1252,13 +1252,13 @@
         <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="G7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="I7" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="J7" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -1372,10 +1372,10 @@
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
         <v>1.72</v>
@@ -1387,16 +1387,16 @@
         <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>3.75</v>
       </c>
       <c r="W7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
         <v>12.5</v>
@@ -1405,37 +1405,37 @@
         <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
         <v>55</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF7" t="n">
         <v>120</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="AK7" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AL7" t="n">
         <v>170</v>
@@ -1444,7 +1444,7 @@
         <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>4.2</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="H8" t="n">
         <v>1.09</v>
       </c>
       <c r="I8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
@@ -1498,7 +1498,7 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
         <v>2.22</v>
@@ -1525,10 +1525,10 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
         <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1660,7 +1660,7 @@
         <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="W9" t="n">
         <v>1.63</v>
@@ -1711,7 +1711,7 @@
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
@@ -1753,34 +1753,34 @@
         <v>3.15</v>
       </c>
       <c r="H10" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
         <v>1.35</v>
@@ -1789,7 +1789,7 @@
         <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
         <v>2.14</v>
@@ -1801,43 +1801,43 @@
         <v>1.46</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="n">
         <v>46</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
         <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
         <v>42</v>
@@ -1882,43 +1882,43 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
         <v>2.98</v>
       </c>
       <c r="H11" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I11" t="n">
         <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
         <v>1.42</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="O11" t="n">
         <v>1.45</v>
       </c>
       <c r="P11" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q11" t="n">
         <v>2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1927,13 +1927,13 @@
         <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
         <v>1.45</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G12" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="H12" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="I12" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
@@ -2044,43 +2044,43 @@
         <v>2.86</v>
       </c>
       <c r="O12" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
         <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="W12" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
         <v>7.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AB12" t="n">
         <v>13.5</v>
@@ -2098,25 +2098,25 @@
         <v>32</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
         <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM12" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
         <v>110</v>
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="G13" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="H13" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.38</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P13" t="n">
         <v>1.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
         <v>3.75</v>
       </c>
       <c r="T13" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="U13" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2230,7 +2230,7 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
         <v>1000</v>
@@ -2287,34 +2287,34 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P14" t="n">
         <v>1.69</v>
@@ -2326,31 +2326,31 @@
         <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
         <v>1.88</v>
       </c>
       <c r="V14" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>14</v>
       </c>
       <c r="Z14" t="n">
         <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB14" t="n">
         <v>9.4</v>
@@ -2359,22 +2359,22 @@
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
         <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
         <v>38</v>
@@ -2383,16 +2383,16 @@
         <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
         <v>30</v>
       </c>
       <c r="AO14" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -2422,109 +2422,109 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="G15" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P15" t="n">
         <v>1.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
         <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
         <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA15" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC15" t="n">
         <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>960</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM15" t="n">
         <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="G16" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H16" t="n">
         <v>1.91</v>
@@ -2572,7 +2572,7 @@
         <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.5</v>
@@ -2581,7 +2581,7 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O16" t="n">
         <v>1.42</v>
@@ -2608,7 +2608,7 @@
         <v>2.04</v>
       </c>
       <c r="W16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2653,7 +2653,7 @@
         <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G17" t="n">
         <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2725,7 +2725,7 @@
         <v>1.84</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R17" t="n">
         <v>1.32</v>
@@ -2740,13 +2740,13 @@
         <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="W17" t="n">
         <v>1.35</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
@@ -2761,19 +2761,19 @@
         <v>14</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
         <v>19</v>
@@ -2782,7 +2782,7 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="n">
         <v>980</v>
@@ -2794,10 +2794,10 @@
         <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="I18" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="J18" t="n">
         <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.45</v>
@@ -2851,7 +2851,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="O18" t="n">
         <v>1.35</v>
@@ -2869,16 +2869,16 @@
         <v>3.7</v>
       </c>
       <c r="T18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U18" t="n">
         <v>1.7</v>
       </c>
       <c r="V18" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="W18" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X18" t="n">
         <v>980</v>
@@ -2887,7 +2887,7 @@
         <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -670,19 +670,19 @@
         <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>44</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -718,7 +718,7 @@
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,40 +802,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
         <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
         <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="P3" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -850,7 +850,7 @@
         <v>1.68</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
         <v>1.7</v>
@@ -865,19 +865,19 @@
         <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
         <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
@@ -886,10 +886,10 @@
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -907,7 +907,7 @@
         <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="n">
         <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -988,7 +988,7 @@
         <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1087,7 +1087,7 @@
         <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
         <v>1.53</v>
@@ -1111,13 +1111,13 @@
         <v>1.22</v>
       </c>
       <c r="S5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T5" t="n">
         <v>2.12</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V5" t="n">
         <v>1.2</v>
@@ -1150,13 +1150,13 @@
         <v>110</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
         <v>130</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.43</v>
@@ -1237,10 +1237,10 @@
         <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
         <v>1.29</v>
@@ -1252,13 +1252,13 @@
         <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1345,19 +1345,19 @@
         <v>9.4</v>
       </c>
       <c r="G7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="I7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -1369,13 +1369,13 @@
         <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
         <v>1.72</v>
@@ -1384,16 +1384,16 @@
         <v>2.14</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
         <v>3.75</v>
       </c>
       <c r="W7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X7" t="n">
         <v>30</v>
@@ -1402,16 +1402,16 @@
         <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AC7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1426,22 +1426,22 @@
         <v>42</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
         <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="AK7" t="n">
         <v>170</v>
       </c>
       <c r="AL7" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="G8" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>1.09</v>
+        <v>1.81</v>
       </c>
       <c r="I8" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>2.22</v>
+        <v>2.86</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1525,10 +1525,10 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1615,19 +1615,19 @@
         <v>2.26</v>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
         <v>3.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1645,25 +1645,25 @@
         <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="R9" t="n">
         <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U9" t="n">
         <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1675,7 +1675,7 @@
         <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
         <v>980</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I10" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1777,10 +1777,10 @@
         <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
         <v>1.35</v>
@@ -1789,70 +1789,70 @@
         <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
         <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
         <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>2.98</v>
       </c>
       <c r="H11" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I11" t="n">
         <v>3.25</v>
@@ -1906,10 +1906,10 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P11" t="n">
         <v>1.63</v>
@@ -1924,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U11" t="n">
         <v>1.9</v>
@@ -1933,7 +1933,7 @@
         <v>1.45</v>
       </c>
       <c r="W11" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="G12" t="n">
         <v>4.8</v>
@@ -2026,64 +2026,64 @@
         <v>2.02</v>
       </c>
       <c r="I12" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="O12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V12" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA12" t="n">
         <v>32</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>7.8</v>
@@ -2092,7 +2092,7 @@
         <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF12" t="n">
         <v>32</v>
@@ -2101,7 +2101,7 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>980</v>
@@ -2113,7 +2113,7 @@
         <v>75</v>
       </c>
       <c r="AL12" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="n">
         <v>170</v>
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="G13" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I13" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.38</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.39</v>
-      </c>
       <c r="P13" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W13" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2218,7 +2218,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AC13" t="n">
         <v>980</v>
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
         <v>2.84</v>
@@ -2320,67 +2320,67 @@
         <v>1.69</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S14" t="n">
         <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U14" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
         <v>60</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
         <v>980</v>
@@ -2389,10 +2389,10 @@
         <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G15" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2443,7 +2443,7 @@
         <v>1.35</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
         <v>3.35</v>
@@ -2452,10 +2452,10 @@
         <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
         <v>1.31</v>
@@ -2467,34 +2467,34 @@
         <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>960</v>
@@ -2506,25 +2506,25 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>960</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>22</v>
       </c>
       <c r="AK15" t="n">
         <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2560,7 +2560,7 @@
         <v>4.4</v>
       </c>
       <c r="G16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
         <v>1.91</v>
@@ -2572,7 +2572,7 @@
         <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
         <v>1.5</v>
@@ -2581,7 +2581,7 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O16" t="n">
         <v>1.42</v>
@@ -2593,7 +2593,7 @@
         <v>2.34</v>
       </c>
       <c r="R16" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
         <v>4.6</v>
@@ -2608,7 +2608,7 @@
         <v>2.04</v>
       </c>
       <c r="W16" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2617,7 +2617,7 @@
         <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA16" t="n">
         <v>980</v>
@@ -2695,10 +2695,10 @@
         <v>3.6</v>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
         <v>2.3</v>
@@ -2740,7 +2740,7 @@
         <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="W17" t="n">
         <v>1.35</v>
@@ -2749,7 +2749,7 @@
         <v>14.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
         <v>14.5</v>
@@ -2758,7 +2758,7 @@
         <v>36</v>
       </c>
       <c r="AB17" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AC17" t="n">
         <v>7.8</v>
@@ -2785,7 +2785,7 @@
         <v>75</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL17" t="n">
         <v>60</v>
@@ -2797,7 +2797,7 @@
         <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="18">
@@ -2830,19 +2830,19 @@
         <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="I18" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="J18" t="n">
         <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>1.45</v>
@@ -2851,7 +2851,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
         <v>1.35</v>
@@ -2860,25 +2860,25 @@
         <v>1.81</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
         <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T18" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="V18" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="W18" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X18" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
-        <v>1.3</v>
+        <v>7.4</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>5.5</v>
       </c>
       <c r="K2" t="n">
-        <v>44</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>1.1</v>
+        <v>1.89</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.09</v>
+        <v>3.6</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G3" t="n">
         <v>2.16</v>
@@ -811,31 +811,31 @@
         <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="O3" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -844,10 +844,10 @@
         <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U3" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V3" t="n">
         <v>1.22</v>
@@ -856,28 +856,28 @@
         <v>1.7</v>
       </c>
       <c r="X3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA3" t="n">
         <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC3" t="n">
         <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
@@ -886,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>140</v>
@@ -904,10 +904,10 @@
         <v>250</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO3" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -940,25 +940,25 @@
         <v>1.71</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
         <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>32</v>
+        <v>5.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>1.29</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.53</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="O5" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P5" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="R5" t="n">
         <v>1.22</v>
       </c>
       <c r="S5" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
         <v>2.16</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>15.5</v>
@@ -1138,7 +1138,7 @@
         <v>200</v>
       </c>
       <c r="AB5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
@@ -1147,7 +1147,7 @@
         <v>24</v>
       </c>
       <c r="AE5" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF5" t="n">
         <v>9.6</v>
@@ -1156,13 +1156,13 @@
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
         <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>24</v>
@@ -1171,10 +1171,10 @@
         <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>180</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H6" t="n">
         <v>2.02</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>1.43</v>
@@ -1231,34 +1231,34 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
         <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
         <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
@@ -1351,7 +1351,7 @@
         <v>1.29</v>
       </c>
       <c r="I7" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="J7" t="n">
         <v>6.2</v>
@@ -1372,16 +1372,16 @@
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
         <v>1.84</v>
@@ -1390,34 +1390,34 @@
         <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="W7" t="n">
         <v>1.08</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="n">
         <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB7" t="n">
         <v>44</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>120</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="G8" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>1.81</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1528,7 +1528,7 @@
         <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
@@ -1630,40 +1630,40 @@
         <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>3.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="V9" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="I10" t="n">
         <v>2.68</v>
@@ -1765,22 +1765,22 @@
         <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
         <v>1.35</v>
@@ -1798,7 +1798,7 @@
         <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1810,7 +1810,7 @@
         <v>17.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
@@ -1834,16 +1834,16 @@
         <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
         <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
         <v>120</v>
@@ -1894,10 +1894,10 @@
         <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.42</v>
@@ -1906,7 +1906,7 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O11" t="n">
         <v>1.43</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G12" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="I12" t="n">
         <v>2.16</v>
@@ -2032,25 +2032,25 @@
         <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O12" t="n">
         <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
@@ -2059,34 +2059,34 @@
         <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
       </c>
       <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB12" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>13</v>
-      </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>11</v>
@@ -2098,31 +2098,31 @@
         <v>32</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK12" t="n">
         <v>75</v>
       </c>
       <c r="AL12" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN12" t="n">
         <v>110</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="G13" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
         <v>6.6</v>
       </c>
       <c r="I13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
         <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
         <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V13" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2230,7 +2230,7 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG13" t="n">
         <v>1000</v>
@@ -2290,7 +2290,7 @@
         <v>2.26</v>
       </c>
       <c r="G14" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H14" t="n">
         <v>3.55</v>
@@ -2329,16 +2329,16 @@
         <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V14" t="n">
         <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
         <v>10.5</v>
@@ -2350,19 +2350,19 @@
         <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="n">
         <v>8.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF14" t="n">
         <v>14.5</v>
@@ -2374,7 +2374,7 @@
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
         <v>980</v>
@@ -2392,7 +2392,7 @@
         <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G15" t="n">
         <v>1.91</v>
@@ -2455,7 +2455,7 @@
         <v>1.81</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R15" t="n">
         <v>1.31</v>
@@ -2464,13 +2464,13 @@
         <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W15" t="n">
         <v>2.08</v>
@@ -2557,40 +2557,40 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="I16" t="n">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="O16" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R16" t="n">
         <v>1.25</v>
@@ -2599,25 +2599,25 @@
         <v>4.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.81</v>
       </c>
-      <c r="V16" t="n">
-        <v>2.04</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
         <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA16" t="n">
         <v>980</v>
@@ -2626,40 +2626,40 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL16" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2698,16 +2698,16 @@
         <v>3.85</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2716,7 +2716,7 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="n">
         <v>1.34</v>
@@ -2734,13 +2734,13 @@
         <v>3.45</v>
       </c>
       <c r="T17" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="W17" t="n">
         <v>1.35</v>
@@ -2752,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA17" t="n">
         <v>36</v>
@@ -2767,7 +2767,7 @@
         <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF17" t="n">
         <v>27</v>
@@ -2785,7 +2785,7 @@
         <v>75</v>
       </c>
       <c r="AK17" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AL17" t="n">
         <v>60</v>
@@ -2836,7 +2836,7 @@
         <v>1.45</v>
       </c>
       <c r="I18" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="J18" t="n">
         <v>4.2</v>
@@ -2869,13 +2869,13 @@
         <v>3.85</v>
       </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U18" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V18" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="W18" t="n">
         <v>1.11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="J2" t="n">
         <v>5.5</v>
       </c>
       <c r="K2" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.12</v>
@@ -700,19 +700,19 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
         <v>1.08</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,85 +802,85 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H3" t="n">
         <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.57</v>
       </c>
       <c r="P3" t="n">
         <v>1.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U3" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V3" t="n">
         <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC3" t="n">
         <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>210</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -889,22 +889,22 @@
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AM3" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AN3" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
         <v>140</v>
@@ -937,109 +937,109 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.29</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.28</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
-        <v>1.26</v>
+        <v>2.48</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>1.76</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H5" t="n">
         <v>5.5</v>
@@ -1084,7 +1084,7 @@
         <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
         <v>3.8</v>
@@ -1096,40 +1096,40 @@
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="O5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="R5" t="n">
         <v>1.22</v>
       </c>
       <c r="S5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
         <v>46</v>
@@ -1138,34 +1138,34 @@
         <v>200</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
         <v>120</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>55</v>
@@ -1174,7 +1174,7 @@
         <v>220</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>180</v>
@@ -1210,55 +1210,55 @@
         <v>3.65</v>
       </c>
       <c r="G6" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
         <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
         <v>9.800000000000001</v>
@@ -1345,61 +1345,61 @@
         <v>9.4</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="I7" t="n">
         <v>1.34</v>
       </c>
       <c r="J7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
         <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
         <v>3.9</v>
       </c>
       <c r="W7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
         <v>9.6</v>
@@ -1411,7 +1411,7 @@
         <v>44</v>
       </c>
       <c r="AC7" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1435,19 +1435,19 @@
         <v>510</v>
       </c>
       <c r="AK7" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AL7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN7" t="n">
         <v>150</v>
       </c>
-      <c r="AM7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="8">
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W8" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="G9" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1750,109 +1750,109 @@
         <v>2.84</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="I10" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.39</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.31</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="W10" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB10" t="n">
         <v>11</v>
       </c>
-      <c r="Z10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>13</v>
-      </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
         <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK10" t="n">
         <v>42</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1885,43 +1885,43 @@
         <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="H11" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T11" t="n">
         <v>1.89</v>
@@ -1930,10 +1930,10 @@
         <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="I12" t="n">
         <v>2.16</v>
@@ -2032,97 +2032,97 @@
         <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P12" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V12" t="n">
         <v>1.86</v>
       </c>
       <c r="W12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
       </c>
       <c r="Z12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB12" t="n">
         <v>13</v>
       </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG12" t="n">
         <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM12" t="n">
         <v>180</v>
       </c>
       <c r="AN12" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="R13" t="n">
         <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
         <v>2.16</v>
       </c>
       <c r="U13" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W13" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
         <v>980</v>
@@ -2218,7 +2218,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>980</v>
@@ -2245,7 +2245,7 @@
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J14" t="n">
         <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
         <v>1.69</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="R14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T14" t="n">
         <v>1.92</v>
       </c>
       <c r="U14" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W14" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="X14" t="n">
         <v>10.5</v>
@@ -2356,7 +2356,7 @@
         <v>8.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
         <v>16.5</v>
@@ -2386,7 +2386,7 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
         <v>980</v>
@@ -2422,109 +2422,109 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="H15" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="I15" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.35</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.34</v>
-      </c>
       <c r="P15" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="V15" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
         <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
       </c>
       <c r="AH15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>22</v>
       </c>
-      <c r="AI15" t="n">
-        <v>960</v>
-      </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
         <v>21</v>
       </c>
-      <c r="AK15" t="n">
-        <v>22</v>
-      </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H16" t="n">
         <v>2.14</v>
@@ -2572,37 +2572,37 @@
         <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="P16" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q16" t="n">
         <v>2.32</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="U16" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="V16" t="n">
         <v>1.81</v>
@@ -2611,16 +2611,16 @@
         <v>1.32</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>12.5</v>
+        <v>48</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AB16" t="n">
         <v>1000</v>
@@ -2629,7 +2629,7 @@
         <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
         <v>28</v>
@@ -2638,28 +2638,28 @@
         <v>27</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
         <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK16" t="n">
         <v>65</v>
       </c>
       <c r="AL16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2695,19 +2695,19 @@
         <v>3.6</v>
       </c>
       <c r="G17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J17" t="n">
         <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2716,31 +2716,31 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q17" t="n">
         <v>2.06</v>
       </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U17" t="n">
         <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W17" t="n">
         <v>1.35</v>
@@ -2749,7 +2749,7 @@
         <v>14.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z17" t="n">
         <v>13.5</v>
@@ -2758,7 +2758,7 @@
         <v>36</v>
       </c>
       <c r="AB17" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AC17" t="n">
         <v>7.8</v>
@@ -2794,10 +2794,10 @@
         <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO17" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -2827,52 +2827,52 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="I18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
         <v>1.81</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
         <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U18" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
         <v>2.8</v>
@@ -2890,7 +2890,7 @@
         <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AB18" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Gornik Leczna</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lierse</t>
+          <t>FC Legia Warsaw II</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.28</v>
+        <v>2.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>2.24</v>
       </c>
       <c r="H2" t="n">
-        <v>7.8</v>
+        <v>2.74</v>
       </c>
       <c r="I2" t="n">
-        <v>14.5</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>5.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.12</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.39</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.68</v>
       </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -769,16 +769,16 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>SC Austria Lustenau</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.14</v>
       </c>
-      <c r="H3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.52</v>
       </c>
-      <c r="Q3" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S3" t="n">
-        <v>5.7</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>2.28</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.71</v>
+        <v>2.3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.76</v>
       </c>
       <c r="W3" t="n">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="X3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.6</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>18</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FC Twente</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Lierse</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.28</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>8.4</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>17.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>10.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>3.35</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.37</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>2.48</v>
+        <v>1.93</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
         <v>22</v>
       </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.199999999999999</v>
+        <v>3.25</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>1.82</v>
+        <v>980</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>1.09</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.92</v>
+        <v>1.02</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.46</v>
+        <v>1.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.65</v>
+        <v>2.16</v>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.06</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>2.56</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>2.28</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="V6" t="n">
-        <v>1.84</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.32</v>
+        <v>1.66</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>FC Twente</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="X7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
         <v>9.4</v>
       </c>
-      <c r="G7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X7" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>510</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>150</v>
-      </c>
       <c r="AO7" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.2</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.93</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>1.94</v>
+        <v>2.28</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,94 +1603,94 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medell</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.36</v>
+        <v>3.75</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>2.08</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.75</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.1</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="n">
         <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
         <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
         <v>980</v>
@@ -1699,31 +1699,31 @@
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.84</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>2.98</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>2.64</v>
+        <v>1.32</v>
       </c>
       <c r="I10" t="n">
-        <v>2.78</v>
+        <v>1.35</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.73</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>2.26</v>
       </c>
       <c r="T10" t="n">
         <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="V10" t="n">
-        <v>1.56</v>
+        <v>3.85</v>
       </c>
       <c r="W10" t="n">
-        <v>1.51</v>
+        <v>1.09</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>16</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
         <v>40</v>
       </c>
-      <c r="AF10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>430</v>
       </c>
       <c r="AK10" t="n">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="n">
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AO10" t="n">
-        <v>36</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11">
@@ -1873,100 +1873,100 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>1.99</v>
       </c>
       <c r="G11" t="n">
-        <v>2.86</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N11" t="n">
         <v>3.3</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.54</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>2.36</v>
       </c>
       <c r="G12" t="n">
-        <v>4.4</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>2.14</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>2.16</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.36</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
-        <v>1.86</v>
+        <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM12" t="n">
         <v>85</v>
       </c>
-      <c r="AM12" t="n">
-        <v>180</v>
-      </c>
       <c r="AN12" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AO12" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.67</v>
+        <v>2.88</v>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2</v>
+        <v>2.68</v>
       </c>
       <c r="I13" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
         <v>7.8</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>980</v>
-      </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2.28</v>
       </c>
-      <c r="G14" t="n">
+      <c r="R14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W14" t="n">
         <v>2.42</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.71</v>
-      </c>
       <c r="X14" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.72</v>
+        <v>3.95</v>
       </c>
       <c r="G15" t="n">
-        <v>1.79</v>
+        <v>4.3</v>
       </c>
       <c r="H15" t="n">
-        <v>5.4</v>
+        <v>2.16</v>
       </c>
       <c r="I15" t="n">
-        <v>6.4</v>
+        <v>2.24</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.87</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>2.24</v>
+        <v>1.3</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH15" t="n">
         <v>22</v>
       </c>
-      <c r="Z15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>26</v>
-      </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.7</v>
       </c>
-      <c r="G16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.14</v>
-      </c>
       <c r="I16" t="n">
-        <v>2.22</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="U16" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V16" t="n">
-        <v>1.81</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.32</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF16" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>27</v>
-      </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
         <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,260 +2678,665 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.6</v>
+        <v>1.79</v>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.26</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
         <v>3.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P17" t="n">
         <v>1.86</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="V17" t="n">
-        <v>1.79</v>
+        <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>1.35</v>
+        <v>2.24</v>
       </c>
       <c r="X17" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="n">
-        <v>13.5</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="AB17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN17" t="n">
         <v>14</v>
       </c>
-      <c r="AC17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>48</v>
-      </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Aguilas Doradas</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X18" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>2025-11-13</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>23:00:00</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Nicaragua</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Honduras</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="F21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J21" t="n">
         <v>4.1</v>
       </c>
-      <c r="K18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="K21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L21" t="n">
         <v>1.46</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M21" t="n">
         <v>1.08</v>
       </c>
-      <c r="N18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X18" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO18" t="n">
+      <c r="N21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X21" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gornik Leczna</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FC Legia Warsaw II</t>
+          <t>Lierse</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.04</v>
+        <v>1.12</v>
       </c>
       <c r="G2" t="n">
-        <v>2.24</v>
+        <v>1.14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>200</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>5.6</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.2</v>
+        <v>1.95</v>
       </c>
       <c r="O2" t="n">
-        <v>1.12</v>
+        <v>1.98</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>1.15</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>6.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>1.89</v>
+        <v>34</v>
       </c>
       <c r="T2" t="n">
-        <v>1.39</v>
+        <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>2.68</v>
+        <v>1.15</v>
       </c>
       <c r="V2" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.8</v>
+        <v>8.6</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,34 +733,34 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH2" t="n">
-        <v>36</v>
+        <v>640</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,10 +769,10 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SC Austria Lustenau</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>2.58</v>
       </c>
       <c r="G3" t="n">
-        <v>3.7</v>
+        <v>2.68</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>3.65</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>2.92</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="L3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.33</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.14</v>
-      </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>3.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.52</v>
+        <v>1.09</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>10.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>2.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.3</v>
+        <v>1.49</v>
       </c>
       <c r="V3" t="n">
-        <v>1.76</v>
+        <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="n">
-        <v>38</v>
+        <v>6.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>18</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>60</v>
       </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="n">
-        <v>600</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lierse</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.24</v>
+        <v>2.34</v>
       </c>
       <c r="G4" t="n">
-        <v>1.28</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>8.4</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>17.5</v>
+        <v>4.3</v>
       </c>
       <c r="J4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB4" t="n">
         <v>6.2</v>
       </c>
-      <c r="K4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>48</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1058,78 +1058,78 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>FC Twente</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="G5" t="n">
-        <v>980</v>
+        <v>1.63</v>
       </c>
       <c r="H5" t="n">
-        <v>1.09</v>
+        <v>5.7</v>
       </c>
       <c r="I5" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>1.02</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.16</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,43 +1138,43 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="P6" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="T6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.28</v>
       </c>
-      <c r="U6" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.66</v>
-      </c>
       <c r="X6" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ6" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO6" t="n">
         <v>240</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FC Twente</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.63</v>
+        <v>3.45</v>
       </c>
       <c r="G7" t="n">
-        <v>1.74</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>2.18</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.37</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.34</v>
-      </c>
       <c r="X7" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="n">
         <v>48</v>
       </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AL7" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.4</v>
+        <v>50</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.73</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.22</v>
-      </c>
       <c r="S8" t="n">
-        <v>4.8</v>
+        <v>2.22</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>4.1</v>
       </c>
       <c r="W8" t="n">
-        <v>2.28</v>
+        <v>1.09</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
-        <v>90</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>46</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA8" t="n">
-        <v>200</v>
+        <v>11.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.6</v>
+        <v>50</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>16.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
         <v>120</v>
       </c>
-      <c r="AF8" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI8" t="n">
         <v>32</v>
       </c>
-      <c r="AI8" t="n">
-        <v>290</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AO8" t="n">
-        <v>220</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,67 +1603,67 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>1.94</v>
       </c>
       <c r="H9" t="n">
-        <v>2.08</v>
+        <v>5.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="J9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.45</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.33</v>
+        <v>2.06</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1672,19 +1672,19 @@
         <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1693,16 +1693,16 @@
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
         <v>1000</v>
@@ -1711,7 +1711,7 @@
         <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.800000000000001</v>
+        <v>2.54</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>2.62</v>
       </c>
       <c r="H10" t="n">
-        <v>1.32</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.35</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>6.2</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>6.8</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.8</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>2.26</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
       <c r="V10" t="n">
-        <v>3.85</v>
+        <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.09</v>
+        <v>1.61</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG10" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AH10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>44</v>
       </c>
-      <c r="AC10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO10" t="n">
         <v>28</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>430</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>160</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>4.5</v>
       </c>
     </row>
     <row r="11">
@@ -1873,46 +1873,46 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.99</v>
+        <v>2.88</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>2.94</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>2.76</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
         <v>2.22</v>
@@ -1921,73 +1921,73 @@
         <v>1.29</v>
       </c>
       <c r="S11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2008,115 +2008,115 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medell</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.36</v>
+        <v>4.1</v>
       </c>
       <c r="G12" t="n">
-        <v>2.48</v>
+        <v>4.3</v>
       </c>
       <c r="H12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.15</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.55</v>
-      </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="P12" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>2.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>5.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>2.12</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.42</v>
+        <v>1.81</v>
       </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="X12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
         <v>980</v>
       </c>
-      <c r="Y12" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>60</v>
-      </c>
       <c r="AB12" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AN12" t="n">
         <v>980</v>
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.88</v>
+        <v>1.67</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1.74</v>
       </c>
       <c r="H13" t="n">
-        <v>2.68</v>
+        <v>6.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.78</v>
+        <v>7.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.35</v>
+        <v>2.84</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="P13" t="n">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="R13" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>2.26</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="V13" t="n">
-        <v>1.56</v>
+        <v>1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>2.34</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
         <v>10</v>
       </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>23</v>
-      </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.66</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>2.46</v>
       </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>3.85</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="L14" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="R14" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="W14" t="n">
-        <v>2.42</v>
+        <v>1.68</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.95</v>
+        <v>1.76</v>
       </c>
       <c r="G15" t="n">
-        <v>4.3</v>
+        <v>1.81</v>
       </c>
       <c r="H15" t="n">
-        <v>2.16</v>
+        <v>5.2</v>
       </c>
       <c r="I15" t="n">
-        <v>2.24</v>
+        <v>5.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.21</v>
       </c>
       <c r="W15" t="n">
-        <v>1.3</v>
+        <v>2.22</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="n">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="n">
-        <v>85</v>
+        <v>13.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="G16" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.7</v>
       </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
       <c r="J16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.15</v>
       </c>
-      <c r="K16" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P16" t="n">
         <v>1.69</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.79</v>
+        <v>3.75</v>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>5.2</v>
+        <v>2.16</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P17" t="n">
         <v>1.86</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R17" t="n">
         <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.23</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>2.24</v>
+        <v>1.34</v>
       </c>
       <c r="X17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG17" t="n">
         <v>16</v>
       </c>
-      <c r="Y17" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.66</v>
+        <v>3.9</v>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>2.14</v>
       </c>
       <c r="I18" t="n">
-        <v>3.25</v>
+        <v>2.22</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O18" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="W18" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK18" t="n">
         <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -2953,390 +2953,120 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.65</v>
+        <v>7.8</v>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>9.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.14</v>
+        <v>1.53</v>
       </c>
       <c r="I19" t="n">
-        <v>2.22</v>
+        <v>1.57</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="R19" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>2.18</v>
       </c>
       <c r="U19" t="n">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
-        <v>1.82</v>
+        <v>2.74</v>
       </c>
       <c r="W19" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="X19" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD19" t="n">
         <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-11-13</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Guatemala</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-11-13</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="G21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X21" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO21" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lierse</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.12</v>
+        <v>6.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.14</v>
+        <v>7.2</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="I2" t="n">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>1.31</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>1.32</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="S2" t="n">
         <v>34</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>8.6</v>
+        <v>1.11</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,34 +733,34 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.06</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>1.35</v>
       </c>
       <c r="AD2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE2" t="n">
         <v>970</v>
       </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF2" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>9.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>640</v>
+        <v>110</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>FC Twente</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.58</v>
+        <v>1.62</v>
       </c>
       <c r="G3" t="n">
-        <v>2.68</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>5.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.65</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.92</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>7.2</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.02</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC3" t="n">
         <v>10.5</v>
       </c>
-      <c r="T3" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AD3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
         <v>80</v>
       </c>
-      <c r="AB3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>220</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>16.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>80</v>
+        <v>8.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.34</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="U4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.17</v>
       </c>
-      <c r="N4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.29</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.69</v>
+        <v>2.32</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="AB4" t="n">
         <v>6.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AJ4" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>380</v>
+        <v>960</v>
       </c>
       <c r="AN4" t="n">
-        <v>48</v>
+        <v>18.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC Twente</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.36</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.26</v>
-      </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>38</v>
+        <v>17.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>11</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>2.52</v>
       </c>
       <c r="G6" t="n">
-        <v>1.78</v>
+        <v>2.62</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="O6" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="P6" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
         <v>5.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD6" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>26</v>
-      </c>
       <c r="AE6" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="n">
-        <v>240</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.45</v>
+        <v>1.72</v>
       </c>
       <c r="G7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.45</v>
       </c>
       <c r="K7" t="n">
         <v>3.8</v>
       </c>
       <c r="L7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.44</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.34</v>
-      </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="V7" t="n">
-        <v>1.76</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>2.36</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.6</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AB7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>75</v>
+        <v>17.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>50</v>
+        <v>14.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11.5</v>
+        <v>4.1</v>
       </c>
       <c r="G8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z8" t="n">
         <v>12</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X8" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AA8" t="n">
-        <v>11.5</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AF8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>120</v>
       </c>
-      <c r="AG8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>510</v>
-      </c>
       <c r="AK8" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.94</v>
+        <v>2.66</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>2.06</v>
+        <v>1.6</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="n">
         <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medell</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="G10" t="n">
-        <v>2.62</v>
+        <v>2.86</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="I10" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.25</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>3.35</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="W10" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AF10" t="n">
         <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>44</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>36</v>
-      </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="G11" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="I11" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>2.92</v>
       </c>
       <c r="T11" t="n">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG11" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13</v>
-      </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.1</v>
+        <v>1.87</v>
       </c>
       <c r="G12" t="n">
-        <v>4.3</v>
+        <v>1.94</v>
       </c>
       <c r="H12" t="n">
-        <v>2.18</v>
+        <v>5.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.22</v>
+        <v>5.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.58</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="U12" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.81</v>
+        <v>1.22</v>
       </c>
       <c r="W12" t="n">
-        <v>1.3</v>
+        <v>2.06</v>
       </c>
       <c r="X12" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="n">
-        <v>27</v>
+        <v>10.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.67</v>
+        <v>12.5</v>
       </c>
       <c r="G13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.74</v>
       </c>
-      <c r="H13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.22</v>
-      </c>
       <c r="S13" t="n">
-        <v>4.9</v>
+        <v>2.22</v>
       </c>
       <c r="T13" t="n">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.15</v>
+        <v>4.3</v>
       </c>
       <c r="W13" t="n">
-        <v>2.34</v>
+        <v>1.08</v>
       </c>
       <c r="X13" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>540</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.46</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>2.26</v>
       </c>
       <c r="I14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S14" t="n">
         <v>3.85</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4.6</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="V14" t="n">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
         <v>25</v>
       </c>
-      <c r="AA14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL14" t="n">
         <v>55</v>
       </c>
-      <c r="AF14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH14" t="n">
+      <c r="AM14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO14" t="n">
         <v>20</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,123 +2408,123 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.76</v>
+        <v>3.85</v>
       </c>
       <c r="G15" t="n">
-        <v>1.81</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
-        <v>5.2</v>
+        <v>2.18</v>
       </c>
       <c r="I15" t="n">
-        <v>5.8</v>
+        <v>2.26</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="P15" t="n">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.32</v>
       </c>
-      <c r="S15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2.22</v>
-      </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG15" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.48</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>2.08</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S16" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.92</v>
       </c>
       <c r="W16" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17">
@@ -2683,391 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.95</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="U17" t="n">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>2.72</v>
       </c>
       <c r="W17" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="X17" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB17" t="n">
         <v>28</v>
       </c>
-      <c r="AB17" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD17" t="n">
         <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AN17" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-11-13</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Guatemala</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-11-13</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.4</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I2" t="n">
         <v>7.2</v>
       </c>
-      <c r="H2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12</v>
-      </c>
       <c r="J2" t="n">
-        <v>1.31</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>1.32</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P2" t="n">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.5</v>
+        <v>2.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.02</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="n">
         <v>34</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>110</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Twente</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="H3" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>3.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="n">
         <v>170</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="n">
         <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK3" t="n">
         <v>21</v>
       </c>
-      <c r="AI3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.72</v>
+        <v>2.58</v>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>2.64</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="P4" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.34</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="W4" t="n">
-        <v>2.32</v>
+        <v>1.61</v>
       </c>
       <c r="X4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF4" t="n">
         <v>16</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AG4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL4" t="n">
         <v>60</v>
       </c>
-      <c r="AA4" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO4" t="n">
         <v>65</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>960</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>250</v>
       </c>
     </row>
     <row r="5">
@@ -1063,100 +1063,100 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
         <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.8</v>
       </c>
-      <c r="K5" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.44</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
         <v>2.16</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="n">
         <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1165,19 +1165,19 @@
         <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.52</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.62</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>2.12</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>2.16</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="O6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>1.86</v>
       </c>
       <c r="W6" t="n">
-        <v>1.61</v>
+        <v>1.28</v>
       </c>
       <c r="X6" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>7.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
         <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="AO6" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.72</v>
+        <v>2.32</v>
       </c>
       <c r="G7" t="n">
-        <v>1.73</v>
+        <v>2.44</v>
       </c>
       <c r="H7" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.74</v>
+        <v>1.97</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>2.36</v>
+        <v>1.7</v>
       </c>
       <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG7" t="n">
         <v>12</v>
       </c>
-      <c r="Y7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AH7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK7" t="n">
         <v>28</v>
       </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AL7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM7" t="n">
         <v>130</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>200</v>
-      </c>
       <c r="AN7" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="W8" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="n">
         <v>120</v>
       </c>
-      <c r="AK8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>180</v>
-      </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.49</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.38</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.76</v>
+        <v>1.82</v>
       </c>
       <c r="G10" t="n">
-        <v>2.86</v>
+        <v>1.88</v>
       </c>
       <c r="H10" t="n">
-        <v>2.84</v>
+        <v>5.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.94</v>
+        <v>5.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
-        <v>1.51</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF10" t="n">
         <v>11</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AG10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH10" t="n">
         <v>22</v>
       </c>
-      <c r="AA10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19</v>
-      </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medell</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.62</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="I11" t="n">
-        <v>2.98</v>
+        <v>1.29</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>7.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V11" t="n">
         <v>4.4</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>9.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>11.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
         <v>13</v>
       </c>
-      <c r="AE11" t="n">
-        <v>980</v>
-      </c>
       <c r="AF11" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>46</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>550</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>960</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.87</v>
+        <v>3.45</v>
       </c>
       <c r="G12" t="n">
-        <v>1.94</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>5.2</v>
+        <v>2.24</v>
       </c>
       <c r="I12" t="n">
-        <v>5.4</v>
+        <v>2.32</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S12" t="n">
         <v>3.6</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="W12" t="n">
-        <v>2.06</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF12" t="n">
         <v>1000</v>
       </c>
-      <c r="Z12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
         <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AN12" t="n">
-        <v>15.5</v>
+        <v>46</v>
       </c>
       <c r="AO12" t="n">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z13" t="n">
         <v>12.5</v>
       </c>
-      <c r="G13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>7</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X13" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="AA13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD13" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AF13" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>16.5</v>
       </c>
       <c r="AH13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO13" t="n">
         <v>29</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>540</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>180</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="G14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
         <v>3.7</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S14" t="n">
         <v>3.6</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.85</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
         <v>2.02</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="W14" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AA14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF14" t="n">
         <v>32</v>
       </c>
-      <c r="AB14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
         <v>40</v>
       </c>
       <c r="AJ14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AO14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2413,391 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.85</v>
+        <v>7.2</v>
       </c>
       <c r="G15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S15" t="n">
         <v>4.1</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V15" t="n">
-        <v>1.79</v>
+        <v>2.64</v>
       </c>
       <c r="W15" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AG15" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AI15" t="n">
         <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="AK15" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-11-13</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Haiti</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-11-13</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>190</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>180</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>6.8</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S2" t="n">
         <v>3.75</v>
       </c>
-      <c r="L2" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.6</v>
-      </c>
       <c r="T2" t="n">
-        <v>2.48</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.64</v>
+        <v>1.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.36</v>
+        <v>500</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>1.29</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AL2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -793,121 +793,121 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1.79</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.08</v>
       </c>
-      <c r="N3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.9</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>180</v>
       </c>
       <c r="W3" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>3.05</v>
+        <v>1.13</v>
       </c>
       <c r="L4" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.61</v>
+        <v>1.14</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.56</v>
+        <v>5.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.61</v>
+        <v>1.06</v>
       </c>
       <c r="X4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>1.17</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>360</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>2.16</v>
+        <v>4.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.16</v>
+        <v>100</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>1.37</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>550</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>870</v>
       </c>
       <c r="AO5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="I6" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.12</v>
       </c>
-      <c r="N6" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.63</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="T6" t="n">
-        <v>2.06</v>
+        <v>5.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.86</v>
+        <v>230</v>
       </c>
       <c r="W6" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>1.12</v>
       </c>
       <c r="AA6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.24</v>
+        <v>1.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>100</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.7</v>
+        <v>210</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>1.13</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>1.09</v>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="I8" t="n">
-        <v>2.08</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>12.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.31</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>930</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
         <v>32</v>
       </c>
-      <c r="AG8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>55</v>
-      </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medell</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>1.06</v>
       </c>
       <c r="G9" t="n">
-        <v>2.78</v>
+        <v>1.08</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>1.02</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>12.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>4.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>19.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="S9" t="n">
-        <v>2.98</v>
+        <v>130</v>
       </c>
       <c r="T9" t="n">
-        <v>1.58</v>
+        <v>10.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2.36</v>
+        <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.56</v>
+        <v>12</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>1.32</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>9.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.82</v>
+        <v>11.5</v>
       </c>
       <c r="G10" t="n">
-        <v>1.88</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="I10" t="n">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>26</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>500</v>
       </c>
       <c r="W10" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>120</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="H11" t="n">
-        <v>1.28</v>
+        <v>16</v>
       </c>
       <c r="I11" t="n">
-        <v>1.29</v>
+        <v>280</v>
       </c>
       <c r="J11" t="n">
-        <v>6.6</v>
+        <v>1.05</v>
       </c>
       <c r="K11" t="n">
-        <v>7.4</v>
+        <v>1.11</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S11" t="n">
+        <v>48</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.03</v>
       </c>
-      <c r="N11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V11" t="n">
-        <v>4.4</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="X11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>16</v>
+        <v>1.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H12" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="I12" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>3.65</v>
+        <v>2.62</v>
       </c>
       <c r="O12" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="P12" t="n">
-        <v>1.88</v>
+        <v>1.51</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>2.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>2.22</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="W12" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB12" t="n">
-        <v>18</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH12" t="n">
         <v>25</v>
       </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>980</v>
+        <v>350</v>
       </c>
       <c r="AN12" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2.32</v>
+        <v>1.9</v>
       </c>
       <c r="I13" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>2.96</v>
+        <v>3.85</v>
       </c>
       <c r="O13" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.59</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.52</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="W13" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="X13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>990</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>990</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO13" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2278,256 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J14" t="n">
         <v>4.3</v>
       </c>
-      <c r="G14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.99</v>
+        <v>2.26</v>
       </c>
       <c r="R14" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>2.3</v>
       </c>
       <c r="U14" t="n">
-        <v>2.02</v>
+        <v>1.64</v>
       </c>
       <c r="V14" t="n">
-        <v>2.04</v>
+        <v>2.82</v>
       </c>
       <c r="W14" t="n">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="Z14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>960</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>380</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>220</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>210</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO14" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-11-13</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>320</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>170</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>270</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
